--- a/пицца.xlsx
+++ b/пицца.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="D2">
         <v>250</v>
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D5">
         <v>350</v>
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D6">
         <v>270</v>

--- a/пицца.xlsx
+++ b/пицца.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan03\OneDrive\Рабочий стол\Pizzeria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan03\Desktop\Pizzeri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>пеперони</t>
   </si>
@@ -53,7 +53,10 @@
     <t>себестоимость</t>
   </si>
   <si>
-    <t>востребованность</t>
+    <t>группа</t>
+  </si>
+  <si>
+    <t>острая</t>
   </si>
 </sst>
 </file>
@@ -110,14 +113,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="виды_пиццы" displayName="виды_пиццы" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="виды_пиццы" displayName="виды_пиццы" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
     <tableColumn id="3" name="id"/>
     <tableColumn id="1" name="название"/>
     <tableColumn id="2" name="цена"/>
     <tableColumn id="4" name="себестоимость"/>
-    <tableColumn id="5" name="востребованность"/>
+    <tableColumn id="5" name="группа"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,6 +504,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>320</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
